--- a/php/assets/model.xlsx
+++ b/php/assets/model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\exercicios-2024\php\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30260A0B-5108-4531-AED2-84C82856A457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F45D6A3-BE34-40DA-997F-49A5984F984C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,38 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
-  <si>
-    <t>Department of Physical and Environmental Science / Scarborough Campus / University of Toronto</t>
-  </si>
-  <si>
-    <t>Andre Simpson;</t>
-  </si>
-  <si>
-    <t>University of Toronto</t>
-  </si>
-  <si>
-    <t>Biospin AG / BRUKER</t>
-  </si>
-  <si>
-    <t>Stephan Graf;</t>
-  </si>
-  <si>
-    <t>Thomas Frei;</t>
-  </si>
-  <si>
-    <t>Martine Monette;</t>
-  </si>
-  <si>
-    <t>Canada Ltd / BRUKER</t>
-  </si>
-  <si>
-    <t>Henry Stronks;</t>
-  </si>
-  <si>
-    <t>Aaron Wheeler;</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -419,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="AB1:AM63"/>
+  <dimension ref="A1:A63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection sqref="A1:AU1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,65 +444,21 @@
     <row r="46" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="47" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="48" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="28:39" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="28:39" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="28:39" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="28:39" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="28:39" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="28:39" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="28:39" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="28:39" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="AB56" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC56" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD56" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE56" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF56" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG56" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH56" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI56" t="s">
-        <v>7</v>
-      </c>
-      <c r="AJ56" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK56" t="s">
-        <v>2</v>
-      </c>
-      <c r="AL56" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM56" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="28:39" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="AB57" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC57" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="28:39" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="28:39" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="28:39" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="28:39" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="28:39" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="28:39" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="15.75" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
